--- a/Results/Adult_PO.xlsx
+++ b/Results/Adult_PO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,58 +578,58 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-NN</t>
+          <t>Reweighing-RF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8513858421532993</v>
+        <v>0.8878675621210007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01513587671319185</v>
+        <v>0.1040738693366423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1105037503274608</v>
+        <v>0.1665117555330317</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06401155695035987</v>
+        <v>0.1431750064343654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-RF</t>
+          <t>FAD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8878675621210007</v>
+        <v>0.8857880554748599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1040738693366423</v>
+        <v>0.07011878422308922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1665117555330317</v>
+        <v>0.1720088224284942</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1431750064343654</v>
+        <v>0.0711793015461849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FAD</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8857880554748599</v>
+        <v>0.65186837644766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07011878422308922</v>
+        <v>0.004657316791671195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1720088224284942</v>
+        <v>0.09359866898047464</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0711793015461849</v>
+        <v>0.05198690433690056</v>
       </c>
     </row>
     <row r="11">
@@ -639,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.65186837644766</v>
+        <v>0.8811796093519469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004657316791671195</v>
+        <v>0.1150518369174514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09359866898047464</v>
+        <v>0.092239</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05198690433690056</v>
+        <v>0.1544275352091238</v>
       </c>
     </row>
     <row r="12">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8811796093519469</v>
+        <v>0.8513858421532993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1150518369174514</v>
+        <v>0.01513587671319185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.092239</v>
+        <v>0.1105037503274608</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1544275352091238</v>
+        <v>0.06401155695035987</v>
       </c>
     </row>
     <row r="13">
@@ -692,77 +692,77 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8667818771144472</v>
+        <v>0.7905916677913221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06069375426714037</v>
+        <v>0.008988972167857432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1456270371543145</v>
+        <v>0.01638223762993422</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06269700919629939</v>
+        <v>0.0160983669165691</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8775140048173369</v>
+        <v>0.8772548938229909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07410461916420027</v>
+        <v>0.0995815377379638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196652567417163</v>
+        <v>0.06542211397525717</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06500784577449004</v>
+        <v>0.1955065837236001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>FAIR-scalar</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.866661672434814</v>
+        <v>0.8719803679921885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05507739132036735</v>
+        <v>0.1465646379333537</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1420934924896518</v>
+        <v>0.05654730388941832</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0676258714067875</v>
+        <v>0.2841283433744483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FAIR-Bernoulli</t>
+          <t>FAIR-betaSF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.579892879445343</v>
+        <v>0.8775140048173369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007388819538158703</v>
+        <v>0.07410461916420027</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07269585637157994</v>
+        <v>0.196652567417163</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07476317384409736</v>
+        <v>0.06500784577449004</v>
       </c>
     </row>
     <row r="18">
@@ -772,35 +772,35 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8915975670847335</v>
+        <v>0.579892879445343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09840086205382668</v>
+        <v>0.0007388819538158703</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1854116760476634</v>
+        <v>0.07269585637157994</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1242759609344082</v>
+        <v>0.07476317384409736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaREP</t>
+          <t>FAIR-Bernoulli</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8753932099796189</v>
+        <v>0.8915975670847335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0550314849844964</v>
+        <v>0.09840086205382668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1741195839718923</v>
+        <v>0.1854116760476634</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03899087011991453</v>
+        <v>0.1242759609344082</v>
       </c>
     </row>
     <row r="20">
@@ -810,16 +810,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8664012480242286</v>
+        <v>0.8753932099796189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04754612028429829</v>
+        <v>0.0550314849844964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1587683197866869</v>
+        <v>0.1741195839718923</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02868204825912368</v>
+        <v>0.03899087011991453</v>
       </c>
     </row>
     <row r="21">
@@ -839,6 +839,272 @@
       </c>
       <c r="E21" t="n">
         <v>0.09250818478943706</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CLFR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8767085419664158</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06036048093793961</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1599961425487314</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.05603294395045122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>LURMI</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8726410260515908</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03973490423711548</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1419761782500394</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02585092751722051</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>LURMI</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7554540442984552</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01568436082324635</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01119853894062259</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02863500128687306</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8694619549904902</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09836227046262387</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05962611794259513</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1917190305631168</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8177960885743349</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09154739045441528</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02332750329205084</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1785081196266865</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8102708093662437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2297.213368811533</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.002980179361844413</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4285714285584033</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.854614327136506</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08241397988003485</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1000432967147311</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1489722163910014</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8780560694915504</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1206224955719224</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0779852370673362</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.234930289872883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_diff</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8827087112364161</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09252292844467153</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1407548177086113</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1487411725585553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8392398210681781</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.574425641293888</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.009739129452349305</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3087316896825204</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8658668274560607</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.08281026155283985</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.06258818316793532</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1495612309809961</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8518013546173926</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2104811671233978</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00811556049101096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3505538851151373</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.87193969865345</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0706801000002717</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.108442598789309</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1199361430399709</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8816038802595938</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.08356736226254481</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1191646222543958</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1407822656130709</v>
       </c>
     </row>
   </sheetData>
